--- a/Projeto Final/Projeto 3/Planilha Síntese Cadence.xlsx
+++ b/Projeto Final/Projeto 3/Planilha Síntese Cadence.xlsx
@@ -129,7 +129,7 @@
       <t>Objetivo</t>
     </r>
     <r>
-      <t>: Fazer uma análise estatística das síntese em ASIC (por software Cadence Virtuoso) dos resultados das sínteses de multiplicações por constantes de mais de 16 bits usando diferentes métodos de multiplicação.</t>
+      <t>: Fazer uma análise estatística das síntese em ASIC (por software Cadence Virtuoso - Genus Synthesis Solution) dos resultados das sínteses de multiplicações por constantes de mais de 16 bits usando diferentes métodos de multiplicação.</t>
     </r>
   </si>
   <si>
@@ -248,7 +248,7 @@
     <t>Média</t>
   </si>
   <si>
-    <t>Variância</t>
+    <t>Desvio Padrão</t>
   </si>
   <si>
     <t>Delay (ps)</t>
@@ -856,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -907,6 +907,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -997,13 +1000,10 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="35" fillId="6" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -1013,25 +1013,13 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="35" fillId="2" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -1107,24 +1095,6 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1133,6 +1103,15 @@
     <xf borderId="19" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="18" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="24" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -1189,6 +1168,9 @@
     </xf>
     <xf borderId="19" fillId="2" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -1407,11 +1389,79 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1053964168"/>
-        <c:axId val="690913511"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$27</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$27:$P$27</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$28</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$28:$P$28</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="331267385"/>
+        <c:axId val="1391232644"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1053964168"/>
+        <c:axId val="331267385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,10 +1503,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="690913511"/>
+        <c:crossAx val="1391232644"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="690913511"/>
+        <c:axId val="1391232644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8500.0"/>
@@ -1528,7 +1578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053964168"/>
+        <c:crossAx val="331267385"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1718,11 +1768,79 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1084091076"/>
-        <c:axId val="883674063"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$33</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$33:$P$33</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$34</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$34:$P$34</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2093069530"/>
+        <c:axId val="613926542"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1084091076"/>
+        <c:axId val="2093069530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,13 +1882,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883674063"/>
+        <c:crossAx val="613926542"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="883674063"/>
+        <c:axId val="613926542"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2500.0"/>
+          <c:max val="3100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1839,7 +1957,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1084091076"/>
+        <c:crossAx val="2093069530"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2029,11 +2147,79 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1977300496"/>
-        <c:axId val="501993977"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$39</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$39:$P$39</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$40</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$40:$P$40</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="722987382"/>
+        <c:axId val="1781977623"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1977300496"/>
+        <c:axId val="722987382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,13 +2261,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501993977"/>
+        <c:crossAx val="1781977623"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501993977"/>
+        <c:axId val="1781977623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4500000.0"/>
+          <c:max val="6000000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2150,7 +2336,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1977300496"/>
+        <c:crossAx val="722987382"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2340,11 +2526,79 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="267588797"/>
-        <c:axId val="1493038937"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$45</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$45:$P$45</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$46</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$46:$P$46</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1312980043"/>
+        <c:axId val="1265081581"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="267588797"/>
+        <c:axId val="1312980043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,13 +2640,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1493038937"/>
+        <c:crossAx val="1265081581"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1493038937"/>
+        <c:axId val="1265081581"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0E7"/>
+          <c:max val="2.4E7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2461,7 +2715,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267588797"/>
+        <c:crossAx val="1312980043"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2651,11 +2905,79 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="932740547"/>
-        <c:axId val="1365850096"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$51</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$51:$P$51</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$D$52</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha Resultados'!$E$23:$P$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha Resultados'!$E$52:$P$52</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="538197996"/>
+        <c:axId val="1198942893"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="932740547"/>
+        <c:axId val="538197996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,10 +3019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365850096"/>
+        <c:crossAx val="1198942893"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1365850096"/>
+        <c:axId val="1198942893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0E11"/>
@@ -2772,7 +3094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932740547"/>
+        <c:crossAx val="538197996"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2807,7 +3129,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="8524875" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
@@ -2832,7 +3154,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="8524875" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
@@ -2857,7 +3179,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="8524875" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
@@ -2877,12 +3199,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7534275" cy="3533775"/>
+    <xdr:ext cx="8524875" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
@@ -2902,12 +3224,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7534275" cy="3533775"/>
+    <xdr:ext cx="8524875" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
@@ -3024,7 +3346,7 @@
     <xdr:ext cx="962025" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Imagem"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagem"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3049,10 +3371,10 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="866775" cy="200025"/>
+    <xdr:ext cx="495300" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagem"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Imagem"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3080,7 +3402,7 @@
     <xdr:ext cx="133350" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Imagem"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Imagem"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3108,7 +3430,7 @@
     <xdr:ext cx="323850" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3276,7 +3598,7 @@
     <xdr:ext cx="76200" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image13.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3304,7 +3626,7 @@
     <xdr:ext cx="66675" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3332,7 +3654,7 @@
     <xdr:ext cx="66675" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3388,7 +3710,7 @@
     <xdr:ext cx="76200" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image18.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3416,7 +3738,7 @@
     <xdr:ext cx="47625" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3685,11 +4007,11 @@
     <col customWidth="1" min="14" max="15" width="20.71"/>
     <col customWidth="1" min="16" max="16" width="20.86"/>
     <col customWidth="1" min="17" max="17" width="17.86"/>
-    <col customWidth="1" min="18" max="18" width="17.29"/>
+    <col customWidth="1" min="18" max="18" width="18.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -3735,356 +4057,404 @@
       <c r="D7" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12">
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="22">
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27" t="s">
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23">
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
     </row>
     <row r="24">
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="M24" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="38" t="s">
+      <c r="O24" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="P24" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
     </row>
     <row r="25">
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43">
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44">
         <v>532614.0</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="45">
         <v>933920.0</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="45">
         <v>655412.0</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="46">
         <v>83977.0</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="44">
         <v>699050.0</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="45">
         <v>757942.0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="45">
         <v>585283.0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="46">
         <v>539791.0</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="44">
         <v>1040887.0</v>
       </c>
-      <c r="N25" s="44">
+      <c r="N25" s="45">
         <v>997309.0</v>
       </c>
-      <c r="O25" s="44">
+      <c r="O25" s="45">
         <v>769530.0</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="46">
         <v>946142.0</v>
       </c>
-      <c r="Q25" s="46" t="s">
+      <c r="Q25" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="R25" s="47" t="s">
+      <c r="R25" s="48" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="51">
         <v>5581.0</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="52">
         <v>4147.0</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="52">
         <v>5731.0</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="53">
         <v>5333.0</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="51">
         <v>5778.0</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="52">
         <v>5993.0</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="52">
         <v>6171.0</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="53">
         <v>5988.0</v>
       </c>
-      <c r="M26" s="50">
+      <c r="M26" s="51">
         <v>6091.0</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N26" s="52">
         <v>6015.0</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="52">
         <v>5872.0</v>
       </c>
-      <c r="P26" s="52">
+      <c r="P26" s="53">
         <v>5806.0</v>
       </c>
-      <c r="Q26" s="53">
+      <c r="Q26" s="54">
         <f t="shared" ref="Q26:Q55" si="1">AVERAGE(E26:P26)</f>
         <v>5708.833333</v>
       </c>
-      <c r="R26" s="53">
+      <c r="R26" s="54">
         <f t="shared" ref="R26:R55" si="2">STDEVP(E26:P26)</f>
         <v>520.4427335</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" s="54"/>
-      <c r="D27" s="55" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="60" t="str">
+      <c r="E27" s="57">
+        <v>5684.0</v>
+      </c>
+      <c r="F27" s="58">
+        <v>4295.0</v>
+      </c>
+      <c r="G27" s="58">
+        <v>5729.0</v>
+      </c>
+      <c r="H27" s="59">
+        <v>5279.0</v>
+      </c>
+      <c r="I27" s="57">
+        <v>6497.0</v>
+      </c>
+      <c r="J27" s="58">
+        <v>6379.0</v>
+      </c>
+      <c r="K27" s="58">
+        <v>6181.0</v>
+      </c>
+      <c r="L27" s="59">
+        <v>6617.0</v>
+      </c>
+      <c r="M27" s="57">
+        <v>7096.0</v>
+      </c>
+      <c r="N27" s="58">
+        <v>6753.0</v>
+      </c>
+      <c r="O27" s="58">
+        <v>6549.0</v>
+      </c>
+      <c r="P27" s="59">
+        <v>6737.0</v>
+      </c>
+      <c r="Q27" s="60">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="60" t="str">
+        <v>6149.666667</v>
+      </c>
+      <c r="R27" s="60">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>749.9031419</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" s="61"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="67" t="str">
+      <c r="E28" s="62">
+        <v>6616.0</v>
+      </c>
+      <c r="F28" s="63">
+        <v>5769.0</v>
+      </c>
+      <c r="G28" s="63">
+        <v>6650.0</v>
+      </c>
+      <c r="H28" s="64">
+        <v>6958.0</v>
+      </c>
+      <c r="I28" s="62">
+        <v>7493.0</v>
+      </c>
+      <c r="J28" s="63">
+        <v>7146.0</v>
+      </c>
+      <c r="K28" s="63">
+        <v>6910.0</v>
+      </c>
+      <c r="L28" s="64">
+        <v>6565.0</v>
+      </c>
+      <c r="M28" s="62">
+        <v>5914.0</v>
+      </c>
+      <c r="N28" s="63">
+        <v>6984.0</v>
+      </c>
+      <c r="O28" s="63">
+        <v>7040.0</v>
+      </c>
+      <c r="P28" s="64">
+        <v>6269.0</v>
+      </c>
+      <c r="Q28" s="65">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="67" t="str">
+        <v>6692.833333</v>
+      </c>
+      <c r="R28" s="65">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>485.8126925</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" s="54"/>
-      <c r="D29" s="55" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="57">
         <v>4653.0</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="58">
         <v>2912.0</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="58">
         <v>4532.0</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="59">
         <v>4579.0</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="57">
         <v>4766.0</v>
       </c>
-      <c r="J29" s="68">
+      <c r="J29" s="58">
         <v>4806.0</v>
       </c>
-      <c r="K29" s="68">
+      <c r="K29" s="58">
         <v>5151.0</v>
       </c>
-      <c r="L29" s="69">
+      <c r="L29" s="59">
         <v>4813.0</v>
       </c>
-      <c r="M29" s="56">
+      <c r="M29" s="57">
         <v>4881.0</v>
       </c>
-      <c r="N29" s="68">
+      <c r="N29" s="58">
         <v>5538.0</v>
       </c>
-      <c r="O29" s="68">
+      <c r="O29" s="58">
         <v>4782.0</v>
       </c>
-      <c r="P29" s="69">
+      <c r="P29" s="59">
         <v>4654.0</v>
       </c>
       <c r="Q29" s="60">
@@ -4098,497 +4468,597 @@
     </row>
     <row r="30">
       <c r="C30" s="61"/>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72">
+      <c r="E30" s="67">
+        <v>6549.0</v>
+      </c>
+      <c r="F30" s="68">
         <v>4175.0</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="68">
         <v>5301.0</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="69">
         <v>5912.0</v>
       </c>
-      <c r="I30" s="71">
+      <c r="I30" s="67">
         <v>6718.0</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="68">
         <v>6583.0</v>
       </c>
-      <c r="K30" s="72">
+      <c r="K30" s="68">
         <v>6737.0</v>
       </c>
-      <c r="L30" s="73">
+      <c r="L30" s="69">
         <v>6552.0</v>
       </c>
-      <c r="M30" s="71">
+      <c r="M30" s="67">
         <v>6935.0</v>
       </c>
-      <c r="N30" s="72">
+      <c r="N30" s="68">
         <v>6612.0</v>
       </c>
-      <c r="O30" s="72">
+      <c r="O30" s="68">
         <v>6422.0</v>
       </c>
-      <c r="P30" s="73">
+      <c r="P30" s="69">
         <v>6716.0</v>
       </c>
-      <c r="Q30" s="67">
+      <c r="Q30" s="65">
         <f t="shared" si="1"/>
-        <v>6242.090909</v>
-      </c>
-      <c r="R30" s="67">
+        <v>6267.666667</v>
+      </c>
+      <c r="R30" s="65">
         <f t="shared" si="2"/>
-        <v>787.6938093</v>
+        <v>758.914832</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" s="74"/>
-      <c r="D31" s="75" t="s">
+      <c r="C31" s="70"/>
+      <c r="D31" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="72">
         <v>6951.0</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="73">
         <v>4820.0</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="73">
         <v>6394.0</v>
       </c>
-      <c r="H31" s="78">
+      <c r="H31" s="74">
         <v>7055.0</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="72">
         <v>7645.0</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="73">
         <v>7947.0</v>
       </c>
-      <c r="K31" s="77">
+      <c r="K31" s="73">
         <v>7716.0</v>
       </c>
-      <c r="L31" s="78">
+      <c r="L31" s="74">
         <v>7615.0</v>
       </c>
-      <c r="M31" s="76">
+      <c r="M31" s="72">
         <v>7957.0</v>
       </c>
-      <c r="N31" s="77">
+      <c r="N31" s="73">
         <v>8278.0</v>
       </c>
-      <c r="O31" s="77">
+      <c r="O31" s="73">
         <v>7938.0</v>
       </c>
-      <c r="P31" s="78">
+      <c r="P31" s="74">
         <v>8170.0</v>
       </c>
-      <c r="Q31" s="79">
+      <c r="Q31" s="75">
         <f t="shared" si="1"/>
         <v>7373.833333</v>
       </c>
-      <c r="R31" s="79">
+      <c r="R31" s="75">
         <f t="shared" si="2"/>
         <v>933.1683336</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="80">
+      <c r="E32" s="76">
         <v>604.0</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="52">
         <v>449.0</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="52">
         <v>596.0</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H32" s="53">
         <v>598.0</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32" s="51">
         <v>1308.0</v>
       </c>
-      <c r="J32" s="51">
+      <c r="J32" s="52">
         <v>1156.0</v>
       </c>
-      <c r="K32" s="51">
+      <c r="K32" s="52">
         <v>959.0</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="53">
         <v>846.0</v>
       </c>
-      <c r="M32" s="50">
+      <c r="M32" s="51">
         <v>676.0</v>
       </c>
-      <c r="N32" s="51">
+      <c r="N32" s="52">
         <v>1001.0</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32" s="52">
         <v>899.0</v>
       </c>
-      <c r="P32" s="52">
+      <c r="P32" s="53">
         <v>829.0</v>
       </c>
-      <c r="Q32" s="53">
+      <c r="Q32" s="54">
         <f t="shared" si="1"/>
         <v>826.75</v>
       </c>
-      <c r="R32" s="81">
+      <c r="R32" s="77">
         <f t="shared" si="2"/>
         <v>243.9375347</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" s="54"/>
-      <c r="D33" s="55" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="60" t="str">
+      <c r="E33" s="78">
+        <v>726.0</v>
+      </c>
+      <c r="F33" s="58">
+        <v>641.0</v>
+      </c>
+      <c r="G33" s="58">
+        <v>720.0</v>
+      </c>
+      <c r="H33" s="59">
+        <v>736.0</v>
+      </c>
+      <c r="I33" s="57">
+        <v>1352.0</v>
+      </c>
+      <c r="J33" s="58">
+        <v>1698.0</v>
+      </c>
+      <c r="K33" s="58">
+        <v>1684.0</v>
+      </c>
+      <c r="L33" s="59">
+        <v>1656.0</v>
+      </c>
+      <c r="M33" s="57">
+        <v>2131.0</v>
+      </c>
+      <c r="N33" s="58">
+        <v>2366.0</v>
+      </c>
+      <c r="O33" s="58">
+        <v>2155.0</v>
+      </c>
+      <c r="P33" s="59">
+        <v>2147.0</v>
+      </c>
+      <c r="Q33" s="60">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="83" t="str">
+        <v>1501</v>
+      </c>
+      <c r="R33" s="79">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>622.0994026</v>
       </c>
     </row>
     <row r="34">
       <c r="C34" s="61"/>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="67" t="str">
+      <c r="E34" s="80">
+        <v>1387.0</v>
+      </c>
+      <c r="F34" s="63">
+        <v>896.0</v>
+      </c>
+      <c r="G34" s="63">
+        <v>1297.0</v>
+      </c>
+      <c r="H34" s="64">
+        <v>1865.0</v>
+      </c>
+      <c r="I34" s="62">
+        <v>3014.0</v>
+      </c>
+      <c r="J34" s="63">
+        <v>2211.0</v>
+      </c>
+      <c r="K34" s="63">
+        <v>1736.0</v>
+      </c>
+      <c r="L34" s="64">
+        <v>1365.0</v>
+      </c>
+      <c r="M34" s="62">
+        <v>832.0</v>
+      </c>
+      <c r="N34" s="63">
+        <v>1778.0</v>
+      </c>
+      <c r="O34" s="63">
+        <v>1777.0</v>
+      </c>
+      <c r="P34" s="64">
+        <v>1301.0</v>
+      </c>
+      <c r="Q34" s="65">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="85" t="str">
+        <v>1621.583333</v>
+      </c>
+      <c r="R34" s="81">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>569.0712402</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" s="54"/>
-      <c r="D35" s="55" t="s">
+      <c r="C35" s="55"/>
+      <c r="D35" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="78">
         <v>670.0</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="58">
         <v>377.0</v>
       </c>
-      <c r="G35" s="68">
+      <c r="G35" s="58">
         <v>636.0</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="59">
         <v>644.0</v>
       </c>
-      <c r="I35" s="56">
+      <c r="I35" s="57">
         <v>1162.0</v>
       </c>
-      <c r="J35" s="68">
+      <c r="J35" s="58">
         <v>951.0</v>
       </c>
-      <c r="K35" s="68">
+      <c r="K35" s="58">
         <v>1300.0</v>
       </c>
-      <c r="L35" s="69">
+      <c r="L35" s="59">
         <v>1061.0</v>
       </c>
-      <c r="M35" s="56">
+      <c r="M35" s="57">
         <v>1062.0</v>
       </c>
-      <c r="N35" s="68">
+      <c r="N35" s="58">
         <v>1473.0</v>
       </c>
-      <c r="O35" s="68">
+      <c r="O35" s="58">
         <v>942.0</v>
       </c>
-      <c r="P35" s="69">
+      <c r="P35" s="59">
         <v>739.0</v>
       </c>
       <c r="Q35" s="60">
         <f t="shared" si="1"/>
         <v>918.0833333</v>
       </c>
-      <c r="R35" s="83">
+      <c r="R35" s="79">
         <f t="shared" si="2"/>
         <v>302.374067</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" s="61"/>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="72">
+      <c r="E36" s="82">
+        <v>802.0</v>
+      </c>
+      <c r="F36" s="68">
         <v>627.0</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="68">
         <v>761.0</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="69">
         <v>824.0</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="67">
         <v>1009.0</v>
       </c>
-      <c r="J36" s="72">
+      <c r="J36" s="68">
         <v>1333.0</v>
       </c>
-      <c r="K36" s="72">
+      <c r="K36" s="68">
         <v>1319.0</v>
       </c>
-      <c r="L36" s="73">
+      <c r="L36" s="69">
         <v>1076.0</v>
       </c>
-      <c r="M36" s="71">
+      <c r="M36" s="67">
         <v>923.0</v>
       </c>
-      <c r="N36" s="72">
+      <c r="N36" s="68">
         <v>1524.0</v>
       </c>
-      <c r="O36" s="72">
+      <c r="O36" s="68">
         <v>1225.0</v>
       </c>
-      <c r="P36" s="73">
+      <c r="P36" s="69">
         <v>1407.0</v>
       </c>
-      <c r="Q36" s="67">
+      <c r="Q36" s="65">
         <f t="shared" si="1"/>
-        <v>1093.454545</v>
-      </c>
-      <c r="R36" s="85">
+        <v>1069.166667</v>
+      </c>
+      <c r="R36" s="81">
         <f t="shared" si="2"/>
-        <v>277.3971107</v>
+        <v>277.5349327</v>
       </c>
     </row>
     <row r="37">
-      <c r="C37" s="74"/>
-      <c r="D37" s="75" t="s">
+      <c r="C37" s="70"/>
+      <c r="D37" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="87">
+      <c r="E37" s="83">
         <v>1047.0</v>
       </c>
-      <c r="F37" s="77">
+      <c r="F37" s="73">
         <v>780.0</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="73">
         <v>892.0</v>
       </c>
-      <c r="H37" s="78">
+      <c r="H37" s="74">
         <v>1017.0</v>
       </c>
-      <c r="I37" s="76">
+      <c r="I37" s="72">
         <v>1178.0</v>
       </c>
-      <c r="J37" s="77">
+      <c r="J37" s="73">
         <v>1924.0</v>
       </c>
-      <c r="K37" s="77">
+      <c r="K37" s="73">
         <v>1970.0</v>
       </c>
-      <c r="L37" s="78">
+      <c r="L37" s="74">
         <v>1175.0</v>
       </c>
-      <c r="M37" s="88">
+      <c r="M37" s="84">
         <v>1716.0</v>
       </c>
-      <c r="N37" s="89">
+      <c r="N37" s="85">
         <v>2086.0</v>
       </c>
-      <c r="O37" s="89">
+      <c r="O37" s="85">
         <v>2066.0</v>
       </c>
-      <c r="P37" s="90">
+      <c r="P37" s="86">
         <v>1848.0</v>
       </c>
-      <c r="Q37" s="79">
+      <c r="Q37" s="75">
         <f t="shared" si="1"/>
         <v>1474.916667</v>
       </c>
-      <c r="R37" s="91">
+      <c r="R37" s="87">
         <f t="shared" si="2"/>
         <v>479.6273655</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="92">
+      <c r="E38" s="88">
         <v>791763.009</v>
       </c>
-      <c r="F38" s="93">
+      <c r="F38" s="89">
         <v>561251.064</v>
       </c>
-      <c r="G38" s="93">
+      <c r="G38" s="89">
         <v>718302.023</v>
       </c>
-      <c r="H38" s="94">
+      <c r="H38" s="90">
         <v>840533.573</v>
       </c>
-      <c r="I38" s="92">
+      <c r="I38" s="88">
         <v>2640076.428</v>
       </c>
-      <c r="J38" s="93">
+      <c r="J38" s="89">
         <v>1914784.79</v>
       </c>
-      <c r="K38" s="93">
+      <c r="K38" s="89">
         <v>1581381.584</v>
       </c>
-      <c r="L38" s="94">
+      <c r="L38" s="90">
         <v>1338688.721</v>
       </c>
-      <c r="M38" s="92">
+      <c r="M38" s="88">
         <v>957176.625</v>
       </c>
-      <c r="N38" s="93">
+      <c r="N38" s="89">
         <v>1626309.813</v>
       </c>
-      <c r="O38" s="93">
+      <c r="O38" s="89">
         <v>1334853.346</v>
       </c>
-      <c r="P38" s="94">
+      <c r="P38" s="90">
         <v>1213206.546</v>
       </c>
-      <c r="Q38" s="53">
+      <c r="Q38" s="54">
         <f t="shared" si="1"/>
         <v>1293193.96</v>
       </c>
-      <c r="R38" s="53">
+      <c r="R38" s="54">
         <f t="shared" si="2"/>
         <v>565698.116</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" s="54"/>
-      <c r="D39" s="55" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="60" t="str">
+      <c r="E39" s="91">
+        <v>983814.728</v>
+      </c>
+      <c r="F39" s="92">
+        <v>825760.288</v>
+      </c>
+      <c r="G39" s="92">
+        <v>969695.27</v>
+      </c>
+      <c r="H39" s="93">
+        <v>1074737.314</v>
+      </c>
+      <c r="I39" s="91">
+        <v>3177003.332</v>
+      </c>
+      <c r="J39" s="92">
+        <v>3133528.305</v>
+      </c>
+      <c r="K39" s="92">
+        <v>2927483.24</v>
+      </c>
+      <c r="L39" s="93">
+        <v>2808034.088</v>
+      </c>
+      <c r="M39" s="91">
+        <v>4247358.574</v>
+      </c>
+      <c r="N39" s="92">
+        <v>4843531.03</v>
+      </c>
+      <c r="O39" s="92">
+        <v>4330155.583</v>
+      </c>
+      <c r="P39" s="93">
+        <v>4584655.572</v>
+      </c>
+      <c r="Q39" s="60">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="60" t="str">
+        <v>2825479.777</v>
+      </c>
+      <c r="R39" s="60">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1460075.175</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="61"/>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="98"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="67" t="str">
+      <c r="E40" s="94">
+        <v>2091073.064</v>
+      </c>
+      <c r="F40" s="95">
+        <v>1105330.979</v>
+      </c>
+      <c r="G40" s="95">
+        <v>1780959.526</v>
+      </c>
+      <c r="H40" s="96">
+        <v>2874658.634</v>
+      </c>
+      <c r="I40" s="94">
+        <v>5791622.799</v>
+      </c>
+      <c r="J40" s="95">
+        <v>3901001.172</v>
+      </c>
+      <c r="K40" s="95">
+        <v>3056132.108</v>
+      </c>
+      <c r="L40" s="96">
+        <v>2275538.315</v>
+      </c>
+      <c r="M40" s="94">
+        <v>1107637.614</v>
+      </c>
+      <c r="N40" s="95">
+        <v>2943002.122</v>
+      </c>
+      <c r="O40" s="95">
+        <v>2825628.084</v>
+      </c>
+      <c r="P40" s="96">
+        <v>2012805.787</v>
+      </c>
+      <c r="Q40" s="65">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R40" s="67" t="str">
+        <v>2647115.85</v>
+      </c>
+      <c r="R40" s="65">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1229686.985</v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" s="54"/>
-      <c r="D41" s="55" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="101">
+      <c r="E41" s="91">
         <v>1121705.167</v>
       </c>
-      <c r="F41" s="102">
+      <c r="F41" s="92">
         <v>540690.309</v>
       </c>
-      <c r="G41" s="102">
+      <c r="G41" s="92">
         <v>953393.067</v>
       </c>
-      <c r="H41" s="103">
+      <c r="H41" s="93">
         <v>1124843.784</v>
       </c>
-      <c r="I41" s="101">
+      <c r="I41" s="91">
         <v>2443554.742</v>
       </c>
-      <c r="J41" s="102">
+      <c r="J41" s="92">
         <v>2066044.207</v>
       </c>
-      <c r="K41" s="102">
+      <c r="K41" s="92">
         <v>2771286.455</v>
       </c>
-      <c r="L41" s="103">
+      <c r="L41" s="93">
         <v>2640314.502</v>
       </c>
-      <c r="M41" s="101">
+      <c r="M41" s="91">
         <v>1479202.496</v>
       </c>
-      <c r="N41" s="102">
+      <c r="N41" s="92">
         <v>2563765.52</v>
       </c>
-      <c r="O41" s="102">
+      <c r="O41" s="92">
         <v>1545363.906</v>
       </c>
-      <c r="P41" s="103">
+      <c r="P41" s="93">
         <v>1313441.562</v>
       </c>
       <c r="Q41" s="60">
@@ -4602,340 +5072,341 @@
     </row>
     <row r="42">
       <c r="C42" s="61"/>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="104"/>
-      <c r="F42" s="105">
+      <c r="E42" s="97">
+        <v>1087785.923</v>
+      </c>
+      <c r="F42" s="98">
         <v>850241.666</v>
       </c>
-      <c r="G42" s="105">
+      <c r="G42" s="98">
         <v>1066166.698</v>
       </c>
-      <c r="H42" s="106">
+      <c r="H42" s="99">
         <v>1112066.593</v>
       </c>
-      <c r="I42" s="104">
+      <c r="I42" s="97">
         <v>2239940.448</v>
       </c>
-      <c r="J42" s="105">
+      <c r="J42" s="98">
         <v>2029745.087</v>
       </c>
-      <c r="K42" s="105">
+      <c r="K42" s="98">
         <v>1891568.722</v>
       </c>
-      <c r="L42" s="106">
+      <c r="L42" s="99">
         <v>1463818.468</v>
       </c>
-      <c r="M42" s="104">
+      <c r="M42" s="97">
         <v>1304513.448</v>
       </c>
-      <c r="N42" s="105">
+      <c r="N42" s="98">
         <v>2238059.64</v>
       </c>
-      <c r="O42" s="105">
+      <c r="O42" s="98">
         <v>1679426.079</v>
       </c>
-      <c r="P42" s="106">
+      <c r="P42" s="99">
         <v>2102494.018</v>
       </c>
-      <c r="Q42" s="67">
+      <c r="Q42" s="65">
         <f t="shared" si="1"/>
-        <v>1634367.352</v>
-      </c>
-      <c r="R42" s="67">
+        <v>1588818.899</v>
+      </c>
+      <c r="R42" s="65">
         <f t="shared" si="2"/>
-        <v>478938.7694</v>
+        <v>482792.3219</v>
       </c>
     </row>
     <row r="43">
-      <c r="C43" s="74"/>
-      <c r="D43" s="75" t="s">
+      <c r="C43" s="70"/>
+      <c r="D43" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="107">
+      <c r="E43" s="100">
         <v>1479811.691</v>
       </c>
-      <c r="F43" s="108">
+      <c r="F43" s="101">
         <v>1108563.265</v>
       </c>
-      <c r="G43" s="108">
+      <c r="G43" s="101">
         <v>1349487.184</v>
       </c>
-      <c r="H43" s="109">
+      <c r="H43" s="102">
         <v>1516564.7</v>
       </c>
-      <c r="I43" s="107">
+      <c r="I43" s="100">
         <v>2606808.742</v>
       </c>
-      <c r="J43" s="108">
+      <c r="J43" s="101">
         <v>3295455.178</v>
       </c>
-      <c r="K43" s="108">
+      <c r="K43" s="101">
         <v>3433170.499</v>
       </c>
-      <c r="L43" s="109">
+      <c r="L43" s="102">
         <v>2099442.43</v>
       </c>
-      <c r="M43" s="107">
+      <c r="M43" s="100">
         <v>2690963.623</v>
       </c>
-      <c r="N43" s="108">
+      <c r="N43" s="101">
         <v>3794720.003</v>
       </c>
-      <c r="O43" s="108">
+      <c r="O43" s="101">
         <v>3424903.299</v>
       </c>
-      <c r="P43" s="109">
+      <c r="P43" s="102">
         <v>3386715.024</v>
       </c>
-      <c r="Q43" s="79">
+      <c r="Q43" s="75">
         <f t="shared" si="1"/>
         <v>2515550.47</v>
       </c>
-      <c r="R43" s="79">
+      <c r="R43" s="75">
         <f t="shared" si="2"/>
         <v>926223.9888</v>
       </c>
     </row>
     <row r="44">
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="111" t="s">
+      <c r="D44" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="112">
+      <c r="E44" s="105">
         <f t="shared" ref="E44:P44" si="3">E32*E26</f>
         <v>3370924</v>
       </c>
-      <c r="F44" s="113">
+      <c r="F44" s="106">
         <f t="shared" si="3"/>
         <v>1862003</v>
       </c>
-      <c r="G44" s="113">
+      <c r="G44" s="106">
         <f t="shared" si="3"/>
         <v>3415676</v>
       </c>
-      <c r="H44" s="114">
+      <c r="H44" s="107">
         <f t="shared" si="3"/>
         <v>3189134</v>
       </c>
-      <c r="I44" s="112">
+      <c r="I44" s="105">
         <f t="shared" si="3"/>
         <v>7557624</v>
       </c>
-      <c r="J44" s="113">
+      <c r="J44" s="106">
         <f t="shared" si="3"/>
         <v>6927908</v>
       </c>
-      <c r="K44" s="113">
+      <c r="K44" s="106">
         <f t="shared" si="3"/>
         <v>5917989</v>
       </c>
-      <c r="L44" s="114">
+      <c r="L44" s="107">
         <f t="shared" si="3"/>
         <v>5065848</v>
       </c>
-      <c r="M44" s="112">
+      <c r="M44" s="105">
         <f t="shared" si="3"/>
         <v>4117516</v>
       </c>
-      <c r="N44" s="113">
+      <c r="N44" s="106">
         <f t="shared" si="3"/>
         <v>6021015</v>
       </c>
-      <c r="O44" s="113">
+      <c r="O44" s="106">
         <f t="shared" si="3"/>
         <v>5278928</v>
       </c>
-      <c r="P44" s="114">
+      <c r="P44" s="107">
         <f t="shared" si="3"/>
         <v>4813174</v>
       </c>
-      <c r="Q44" s="53">
+      <c r="Q44" s="54">
         <f t="shared" si="1"/>
         <v>4794811.583</v>
       </c>
-      <c r="R44" s="81">
+      <c r="R44" s="77">
         <f t="shared" si="2"/>
         <v>1602713.026</v>
       </c>
     </row>
     <row r="45">
-      <c r="C45" s="54"/>
-      <c r="D45" s="115" t="s">
+      <c r="C45" s="55"/>
+      <c r="D45" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="116">
+      <c r="E45" s="109">
         <f t="shared" ref="E45:P45" si="4">E33*E27</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="117">
+        <v>4126584</v>
+      </c>
+      <c r="F45" s="110">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="117">
+        <v>2753095</v>
+      </c>
+      <c r="G45" s="110">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="118">
+        <v>4124880</v>
+      </c>
+      <c r="H45" s="111">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="116">
+        <v>3885344</v>
+      </c>
+      <c r="I45" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="117">
+        <v>8783944</v>
+      </c>
+      <c r="J45" s="110">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="117">
+        <v>10831542</v>
+      </c>
+      <c r="K45" s="110">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="118">
+        <v>10408804</v>
+      </c>
+      <c r="L45" s="111">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="116">
+        <v>10957752</v>
+      </c>
+      <c r="M45" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="117">
+        <v>15121576</v>
+      </c>
+      <c r="N45" s="110">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="117">
+        <v>15977598</v>
+      </c>
+      <c r="O45" s="110">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="118">
+        <v>14113095</v>
+      </c>
+      <c r="P45" s="111">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14464339</v>
       </c>
       <c r="Q45" s="60">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="83">
+        <v>9629046.083</v>
+      </c>
+      <c r="R45" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4648782.767</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="61"/>
-      <c r="D46" s="119" t="s">
+      <c r="D46" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="120">
-        <f t="shared" ref="E46:P46" si="5">E34*E28</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="121">
+      <c r="E46" s="113">
+        <f t="shared" ref="E46:N46" si="5">E34*E28</f>
+        <v>9176392</v>
+      </c>
+      <c r="F46" s="114">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="121">
+        <v>5169024</v>
+      </c>
+      <c r="G46" s="114">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="122">
+        <v>8625050</v>
+      </c>
+      <c r="H46" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="120">
+        <v>12976670</v>
+      </c>
+      <c r="I46" s="113">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="121">
+        <v>22583902</v>
+      </c>
+      <c r="J46" s="114">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="121">
+        <v>15799806</v>
+      </c>
+      <c r="K46" s="114">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="122">
+        <v>11995760</v>
+      </c>
+      <c r="L46" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="120">
+        <v>8961225</v>
+      </c>
+      <c r="M46" s="113">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="121">
+        <v>4920448</v>
+      </c>
+      <c r="N46" s="114">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="121">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="122">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="67">
+        <v>12417552</v>
+      </c>
+      <c r="O46" s="116">
+        <v>2825628.084</v>
+      </c>
+      <c r="P46" s="115">
+        <f>P34*P28</f>
+        <v>8155969</v>
+      </c>
+      <c r="Q46" s="65">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="85">
+        <v>10300618.84</v>
+      </c>
+      <c r="R46" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5141790.952</v>
       </c>
     </row>
     <row r="47">
-      <c r="C47" s="54"/>
-      <c r="D47" s="115" t="s">
+      <c r="C47" s="55"/>
+      <c r="D47" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="116">
+      <c r="E47" s="109">
         <f t="shared" ref="E47:P47" si="6">E35*E29</f>
         <v>3117510</v>
       </c>
-      <c r="F47" s="117">
+      <c r="F47" s="110">
         <f t="shared" si="6"/>
         <v>1097824</v>
       </c>
-      <c r="G47" s="117">
+      <c r="G47" s="110">
         <f t="shared" si="6"/>
         <v>2882352</v>
       </c>
-      <c r="H47" s="118">
+      <c r="H47" s="111">
         <f t="shared" si="6"/>
         <v>2948876</v>
       </c>
-      <c r="I47" s="116">
+      <c r="I47" s="109">
         <f t="shared" si="6"/>
         <v>5538092</v>
       </c>
-      <c r="J47" s="117">
+      <c r="J47" s="110">
         <f t="shared" si="6"/>
         <v>4570506</v>
       </c>
-      <c r="K47" s="117">
+      <c r="K47" s="110">
         <f t="shared" si="6"/>
         <v>6696300</v>
       </c>
-      <c r="L47" s="118">
+      <c r="L47" s="111">
         <f t="shared" si="6"/>
         <v>5106593</v>
       </c>
-      <c r="M47" s="116">
+      <c r="M47" s="109">
         <f t="shared" si="6"/>
         <v>5183622</v>
       </c>
-      <c r="N47" s="117">
+      <c r="N47" s="110">
         <f t="shared" si="6"/>
         <v>8157474</v>
       </c>
-      <c r="O47" s="117">
+      <c r="O47" s="110">
         <f t="shared" si="6"/>
         <v>4504644</v>
       </c>
-      <c r="P47" s="118">
+      <c r="P47" s="111">
         <f t="shared" si="6"/>
         <v>3439306</v>
       </c>
@@ -4943,377 +5414,377 @@
         <f t="shared" si="1"/>
         <v>4436924.917</v>
       </c>
-      <c r="R47" s="83">
+      <c r="R47" s="79">
         <f t="shared" si="2"/>
         <v>1818995.889</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" s="61"/>
-      <c r="D48" s="123" t="s">
+      <c r="D48" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="120">
+      <c r="E48" s="113">
         <f t="shared" ref="E48:P48" si="7">E36*E30</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="121">
+        <v>5252298</v>
+      </c>
+      <c r="F48" s="114">
         <f t="shared" si="7"/>
         <v>2617725</v>
       </c>
-      <c r="G48" s="121">
+      <c r="G48" s="114">
         <f t="shared" si="7"/>
         <v>4034061</v>
       </c>
-      <c r="H48" s="122">
+      <c r="H48" s="115">
         <f t="shared" si="7"/>
         <v>4871488</v>
       </c>
-      <c r="I48" s="120">
+      <c r="I48" s="113">
         <f t="shared" si="7"/>
         <v>6778462</v>
       </c>
-      <c r="J48" s="121">
+      <c r="J48" s="114">
         <f t="shared" si="7"/>
         <v>8775139</v>
       </c>
-      <c r="K48" s="121">
+      <c r="K48" s="114">
         <f t="shared" si="7"/>
         <v>8886103</v>
       </c>
-      <c r="L48" s="122">
+      <c r="L48" s="115">
         <f t="shared" si="7"/>
         <v>7049952</v>
       </c>
-      <c r="M48" s="120">
+      <c r="M48" s="113">
         <f t="shared" si="7"/>
         <v>6401005</v>
       </c>
-      <c r="N48" s="121">
+      <c r="N48" s="114">
         <f t="shared" si="7"/>
         <v>10076688</v>
       </c>
-      <c r="O48" s="121">
+      <c r="O48" s="114">
         <f t="shared" si="7"/>
         <v>7866950</v>
       </c>
-      <c r="P48" s="122">
+      <c r="P48" s="115">
         <f t="shared" si="7"/>
         <v>9449412</v>
       </c>
-      <c r="Q48" s="67">
+      <c r="Q48" s="65">
         <f t="shared" si="1"/>
-        <v>6400582.083</v>
-      </c>
-      <c r="R48" s="85">
+        <v>6838273.583</v>
+      </c>
+      <c r="R48" s="81">
         <f t="shared" si="2"/>
-        <v>2894767.872</v>
+        <v>2209984.757</v>
       </c>
     </row>
     <row r="49">
-      <c r="C49" s="74"/>
-      <c r="D49" s="124" t="s">
+      <c r="C49" s="70"/>
+      <c r="D49" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="125">
+      <c r="E49" s="119">
         <f t="shared" ref="E49:P49" si="8">E37*E31</f>
         <v>7277697</v>
       </c>
-      <c r="F49" s="126">
+      <c r="F49" s="120">
         <f t="shared" si="8"/>
         <v>3759600</v>
       </c>
-      <c r="G49" s="126">
+      <c r="G49" s="120">
         <f t="shared" si="8"/>
         <v>5703448</v>
       </c>
-      <c r="H49" s="127">
+      <c r="H49" s="121">
         <f t="shared" si="8"/>
         <v>7174935</v>
       </c>
-      <c r="I49" s="125">
+      <c r="I49" s="119">
         <f t="shared" si="8"/>
         <v>9005810</v>
       </c>
-      <c r="J49" s="126">
+      <c r="J49" s="120">
         <f t="shared" si="8"/>
         <v>15290028</v>
       </c>
-      <c r="K49" s="126">
+      <c r="K49" s="120">
         <f t="shared" si="8"/>
         <v>15200520</v>
       </c>
-      <c r="L49" s="127">
+      <c r="L49" s="121">
         <f t="shared" si="8"/>
         <v>8947625</v>
       </c>
-      <c r="M49" s="125">
+      <c r="M49" s="119">
         <f t="shared" si="8"/>
         <v>13654212</v>
       </c>
-      <c r="N49" s="126">
+      <c r="N49" s="120">
         <f t="shared" si="8"/>
         <v>17267908</v>
       </c>
-      <c r="O49" s="126">
+      <c r="O49" s="120">
         <f t="shared" si="8"/>
         <v>16399908</v>
       </c>
-      <c r="P49" s="127">
+      <c r="P49" s="121">
         <f t="shared" si="8"/>
         <v>15098160</v>
       </c>
-      <c r="Q49" s="79">
+      <c r="Q49" s="75">
         <f t="shared" si="1"/>
         <v>11231654.25</v>
       </c>
-      <c r="R49" s="91">
+      <c r="R49" s="87">
         <f t="shared" si="2"/>
         <v>4517030.109</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" s="110" t="s">
+      <c r="C50" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="111" t="s">
+      <c r="D50" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="112">
+      <c r="E50" s="105">
         <f t="shared" ref="E50:P50" si="9">E32*(E26^2)</f>
         <v>18813126844</v>
       </c>
-      <c r="F50" s="113">
+      <c r="F50" s="106">
         <f t="shared" si="9"/>
         <v>7721726441</v>
       </c>
-      <c r="G50" s="113">
+      <c r="G50" s="106">
         <f t="shared" si="9"/>
         <v>19575239156</v>
       </c>
-      <c r="H50" s="114">
+      <c r="H50" s="107">
         <f t="shared" si="9"/>
         <v>17007651622</v>
       </c>
-      <c r="I50" s="112">
+      <c r="I50" s="105">
         <f t="shared" si="9"/>
         <v>43667951472</v>
       </c>
-      <c r="J50" s="113">
+      <c r="J50" s="106">
         <f t="shared" si="9"/>
         <v>41518952644</v>
       </c>
-      <c r="K50" s="113">
+      <c r="K50" s="106">
         <f t="shared" si="9"/>
         <v>36519910119</v>
       </c>
-      <c r="L50" s="114">
+      <c r="L50" s="107">
         <f t="shared" si="9"/>
         <v>30334297824</v>
       </c>
-      <c r="M50" s="112">
+      <c r="M50" s="105">
         <f t="shared" si="9"/>
         <v>25079789956</v>
       </c>
-      <c r="N50" s="113">
+      <c r="N50" s="106">
         <f t="shared" si="9"/>
         <v>36216405225</v>
       </c>
-      <c r="O50" s="113">
+      <c r="O50" s="106">
         <f t="shared" si="9"/>
         <v>30997865216</v>
       </c>
-      <c r="P50" s="114">
+      <c r="P50" s="107">
         <f t="shared" si="9"/>
         <v>27945288244</v>
       </c>
-      <c r="Q50" s="128">
+      <c r="Q50" s="122">
         <f t="shared" si="1"/>
         <v>27949850397</v>
       </c>
-      <c r="R50" s="53">
+      <c r="R50" s="54">
         <f t="shared" si="2"/>
         <v>10322697018</v>
       </c>
     </row>
     <row r="51">
-      <c r="C51" s="54"/>
-      <c r="D51" s="115" t="s">
+      <c r="C51" s="55"/>
+      <c r="D51" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="116">
+      <c r="E51" s="109">
         <f t="shared" ref="E51:P51" si="10">E33*(E27^2)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="117">
+        <v>23455503456</v>
+      </c>
+      <c r="F51" s="110">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="117">
+        <v>11824543025</v>
+      </c>
+      <c r="G51" s="110">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="118">
+        <v>23631437520</v>
+      </c>
+      <c r="H51" s="111">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="116">
+        <v>20510730976</v>
+      </c>
+      <c r="I51" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="117">
+        <v>57069284168</v>
+      </c>
+      <c r="J51" s="110">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="117">
+        <v>69094406418</v>
+      </c>
+      <c r="K51" s="110">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="118">
+        <v>64336817524</v>
+      </c>
+      <c r="L51" s="111">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="116">
+        <v>72507444984</v>
+      </c>
+      <c r="M51" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="117">
+        <v>107302703296</v>
+      </c>
+      <c r="N51" s="110">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="117">
+        <v>107896719294</v>
+      </c>
+      <c r="O51" s="110">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="118">
+        <v>92426659155</v>
+      </c>
+      <c r="P51" s="111">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="129">
+        <v>97446251843</v>
+      </c>
+      <c r="Q51" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62291875138</v>
       </c>
       <c r="R51" s="60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33822219320</v>
       </c>
     </row>
     <row r="52">
       <c r="C52" s="61"/>
-      <c r="D52" s="119" t="s">
+      <c r="D52" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="120">
+      <c r="E52" s="113">
         <f t="shared" ref="E52:P52" si="11">E34*(E28^2)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="121">
+        <v>60711009472</v>
+      </c>
+      <c r="F52" s="114">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="121">
+        <v>29820099456</v>
+      </c>
+      <c r="G52" s="114">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="122">
+        <v>57356582500</v>
+      </c>
+      <c r="H52" s="115">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="120">
+        <v>90291669860</v>
+      </c>
+      <c r="I52" s="113">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="121">
+        <v>169221177686</v>
+      </c>
+      <c r="J52" s="114">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="121">
+        <v>112905413676</v>
+      </c>
+      <c r="K52" s="114">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="122">
+        <v>82890701600</v>
+      </c>
+      <c r="L52" s="115">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="120">
+        <v>58830442125</v>
+      </c>
+      <c r="M52" s="113">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="121">
+        <v>29099529472</v>
+      </c>
+      <c r="N52" s="114">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="121">
+        <v>86724183168</v>
+      </c>
+      <c r="O52" s="114">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="122">
+        <v>88070963200</v>
+      </c>
+      <c r="P52" s="115">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="130">
+        <v>51129769661</v>
+      </c>
+      <c r="Q52" s="124">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="67">
+        <v>76420961823</v>
+      </c>
+      <c r="R52" s="65">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>36956517859</v>
       </c>
     </row>
     <row r="53">
-      <c r="C53" s="54"/>
-      <c r="D53" s="115" t="s">
+      <c r="C53" s="55"/>
+      <c r="D53" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="116">
+      <c r="E53" s="109">
         <f t="shared" ref="E53:P53" si="12">E35*(E29^2)</f>
         <v>14505774030</v>
       </c>
-      <c r="F53" s="117">
+      <c r="F53" s="110">
         <f t="shared" si="12"/>
         <v>3196863488</v>
       </c>
-      <c r="G53" s="117">
+      <c r="G53" s="110">
         <f t="shared" si="12"/>
         <v>13062819264</v>
       </c>
-      <c r="H53" s="118">
+      <c r="H53" s="111">
         <f t="shared" si="12"/>
         <v>13502903204</v>
       </c>
-      <c r="I53" s="116">
+      <c r="I53" s="109">
         <f t="shared" si="12"/>
         <v>26394546472</v>
       </c>
-      <c r="J53" s="117">
+      <c r="J53" s="110">
         <f t="shared" si="12"/>
         <v>21965851836</v>
       </c>
-      <c r="K53" s="117">
+      <c r="K53" s="110">
         <f t="shared" si="12"/>
         <v>34492641300</v>
       </c>
-      <c r="L53" s="118">
+      <c r="L53" s="111">
         <f t="shared" si="12"/>
         <v>24578032109</v>
       </c>
-      <c r="M53" s="116">
+      <c r="M53" s="109">
         <f t="shared" si="12"/>
         <v>25301258982</v>
       </c>
-      <c r="N53" s="117">
+      <c r="N53" s="110">
         <f t="shared" si="12"/>
         <v>45176091012</v>
       </c>
-      <c r="O53" s="117">
+      <c r="O53" s="110">
         <f t="shared" si="12"/>
         <v>21541207608</v>
       </c>
-      <c r="P53" s="118">
+      <c r="P53" s="111">
         <f t="shared" si="12"/>
         <v>16006530124</v>
       </c>
-      <c r="Q53" s="129">
+      <c r="Q53" s="123">
         <f t="shared" si="1"/>
         <v>21643709952</v>
       </c>
@@ -5324,124 +5795,124 @@
     </row>
     <row r="54">
       <c r="C54" s="61"/>
-      <c r="D54" s="123" t="s">
+      <c r="D54" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="120">
+      <c r="E54" s="113">
         <f t="shared" ref="E54:P54" si="13">E36*(E30^2)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="121">
+        <v>34397299602</v>
+      </c>
+      <c r="F54" s="114">
         <f t="shared" si="13"/>
         <v>10929001875</v>
       </c>
-      <c r="G54" s="121">
+      <c r="G54" s="114">
         <f t="shared" si="13"/>
         <v>21384557361</v>
       </c>
-      <c r="H54" s="122">
+      <c r="H54" s="115">
         <f t="shared" si="13"/>
         <v>28800237056</v>
       </c>
-      <c r="I54" s="120">
+      <c r="I54" s="113">
         <f t="shared" si="13"/>
         <v>45537707716</v>
       </c>
-      <c r="J54" s="121">
+      <c r="J54" s="114">
         <f t="shared" si="13"/>
         <v>57766740037</v>
       </c>
-      <c r="K54" s="121">
+      <c r="K54" s="114">
         <f t="shared" si="13"/>
         <v>59865675911</v>
       </c>
-      <c r="L54" s="122">
+      <c r="L54" s="115">
         <f t="shared" si="13"/>
         <v>46191285504</v>
       </c>
-      <c r="M54" s="120">
+      <c r="M54" s="113">
         <f t="shared" si="13"/>
         <v>44390969675</v>
       </c>
-      <c r="N54" s="121">
+      <c r="N54" s="114">
         <f t="shared" si="13"/>
         <v>66627061056</v>
       </c>
-      <c r="O54" s="121">
+      <c r="O54" s="114">
         <f t="shared" si="13"/>
         <v>50521552900</v>
       </c>
-      <c r="P54" s="122">
+      <c r="P54" s="115">
         <f t="shared" si="13"/>
         <v>63462250992</v>
       </c>
-      <c r="Q54" s="130">
+      <c r="Q54" s="124">
         <f t="shared" si="1"/>
-        <v>41289753340</v>
-      </c>
-      <c r="R54" s="67">
+        <v>44156194974</v>
+      </c>
+      <c r="R54" s="65">
         <f t="shared" si="2"/>
-        <v>20546476601</v>
+        <v>16608122372</v>
       </c>
     </row>
     <row r="55">
-      <c r="C55" s="74"/>
-      <c r="D55" s="124" t="s">
+      <c r="C55" s="70"/>
+      <c r="D55" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="125">
+      <c r="E55" s="119">
         <f t="shared" ref="E55:P55" si="14">E37*(E31^2)</f>
         <v>50587271847</v>
       </c>
-      <c r="F55" s="126">
+      <c r="F55" s="120">
         <f t="shared" si="14"/>
         <v>18121272000</v>
       </c>
-      <c r="G55" s="126">
+      <c r="G55" s="120">
         <f t="shared" si="14"/>
         <v>36467846512</v>
       </c>
-      <c r="H55" s="127">
+      <c r="H55" s="121">
         <f t="shared" si="14"/>
         <v>50619166425</v>
       </c>
-      <c r="I55" s="125">
+      <c r="I55" s="119">
         <f t="shared" si="14"/>
         <v>68849417450</v>
       </c>
-      <c r="J55" s="126">
+      <c r="J55" s="120">
         <f t="shared" si="14"/>
         <v>121509852516</v>
       </c>
-      <c r="K55" s="126">
+      <c r="K55" s="120">
         <f t="shared" si="14"/>
         <v>117287212320</v>
       </c>
-      <c r="L55" s="127">
+      <c r="L55" s="121">
         <f t="shared" si="14"/>
         <v>68136164375</v>
       </c>
-      <c r="M55" s="125">
+      <c r="M55" s="119">
         <f t="shared" si="14"/>
         <v>108646564884</v>
       </c>
-      <c r="N55" s="126">
+      <c r="N55" s="120">
         <f t="shared" si="14"/>
         <v>142943742424</v>
       </c>
-      <c r="O55" s="126">
+      <c r="O55" s="120">
         <f t="shared" si="14"/>
         <v>130182469704</v>
       </c>
-      <c r="P55" s="127">
+      <c r="P55" s="121">
         <f t="shared" si="14"/>
         <v>123351967200</v>
       </c>
-      <c r="Q55" s="131">
+      <c r="Q55" s="125">
         <f t="shared" si="1"/>
         <v>86391912305</v>
       </c>
-      <c r="R55" s="79">
+      <c r="R55" s="75">
         <f t="shared" si="2"/>
         <v>40332774794</v>
       </c>
@@ -6457,26 +6928,26 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="Y133:Z160"/>
-    <mergeCell ref="AB133:AC160"/>
-    <mergeCell ref="AE133:AF160"/>
-    <mergeCell ref="AH133:AI160"/>
-    <mergeCell ref="AK133:AL160"/>
-    <mergeCell ref="V133:W160"/>
-    <mergeCell ref="V165:W187"/>
-    <mergeCell ref="Y165:Z187"/>
-    <mergeCell ref="AB165:AC187"/>
-    <mergeCell ref="AE165:AF187"/>
-    <mergeCell ref="AH165:AI187"/>
-    <mergeCell ref="AK165:AL187"/>
     <mergeCell ref="B14:M26"/>
     <mergeCell ref="B31:P51"/>
     <mergeCell ref="B55:P76"/>
     <mergeCell ref="B79:P95"/>
+    <mergeCell ref="B102:P129"/>
     <mergeCell ref="B133:H181"/>
     <mergeCell ref="K133:T159"/>
     <mergeCell ref="K164:L164"/>
-    <mergeCell ref="B102:P129"/>
+    <mergeCell ref="AB133:AC160"/>
+    <mergeCell ref="AB165:AC187"/>
+    <mergeCell ref="AH133:AI160"/>
+    <mergeCell ref="AH165:AI187"/>
+    <mergeCell ref="V133:W160"/>
+    <mergeCell ref="Y133:Z160"/>
+    <mergeCell ref="AE133:AF160"/>
+    <mergeCell ref="AK133:AL160"/>
+    <mergeCell ref="V165:W187"/>
+    <mergeCell ref="Y165:Z187"/>
+    <mergeCell ref="AE165:AF187"/>
+    <mergeCell ref="AK165:AL187"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
